--- a/biology/Mycologie/Podaxis_pistillaris/Podaxis_pistillaris.xlsx
+++ b/biology/Mycologie/Podaxis_pistillaris/Podaxis_pistillaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Podaxis pistillaris est une espèce de champignons de la famille des Agaricaceae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Podaxis pistillaris peut atteindre 15 cm de haut et présente un pied ligneux.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (24 janvier 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (24 janvier 2023) :
 Podaxis pistillaris f. macrosporus G.Cunn., 1932
 Podaxis pistillaris f. pistillaris
 Podaxis pistillaris var. africana Henn., 1893
@@ -577,11 +593,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Podaxis pistillaris (L.) Fr., 1829[1].
-L'espèce a été initialement classée par Carl von Linné dans le genre Lycoperdon sous le basionyme Lycoperdon pistillare L., 1771[1], puis reclassée dans le genre Podaxon par Elias Magnus Fries, genre rebaptisé par la suite en Podaxis.
-Podaxis pistillaris a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Podaxis pistillaris (L.) Fr., 1829.
+L'espèce a été initialement classée par Carl von Linné dans le genre Lycoperdon sous le basionyme Lycoperdon pistillare L., 1771, puis reclassée dans le genre Podaxon par Elias Magnus Fries, genre rebaptisé par la suite en Podaxis.
+Podaxis pistillaris a pour synonymes :
 Lycoperdon pistillare L., 1771
 Podaxis podaxon (L.) Fr. (1829), 1829
 Podaxon pistillaris (L.) Fr., 1829
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(la) E.M. Fries, Systema Mycologicum, vol. 3, 1829 (lire en ligne), p. 63</t>
         </is>
